--- a/biology/Zoologie/Eupyrrhoglossum_venustum/Eupyrrhoglossum_venustum.xlsx
+++ b/biology/Zoologie/Eupyrrhoglossum_venustum/Eupyrrhoglossum_venustum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupyrrhoglossum venustum est une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Eupyrrhoglossum.
 </t>
@@ -513,12 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Imago
-L'espèce est semblable à Eupyrrhoglossum sagra, mais l'aile avant montre sept lignes noires traverses entre la base et la nervure CuAU1 ; également la bande jaune sur l'aile postérieure a des limites communes floues.
+          <t>L'Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est semblable à Eupyrrhoglossum sagra, mais l'aile avant montre sept lignes noires traverses entre la base et la nervure CuAU1 ; également la bande jaune sur l'aile postérieure a des limites communes floues.
 L'aile arrière est grisâtre avec une large bande jaune en dehors. Celle-ci est plus pâle que celles des deux autres espèces du genre ; elle tend à s'élargir près de la marge antérieure. Le revers est brunâtre roux vers l'extérieur et tend à devenir grisâtre vers l'intérieur.  
 La tête est pourvue d'une crête médiane moins prononcée que chez Eupyrrhoglossum sagra, ainsi que le thorax ; les yeux sont très développés.
-La chenille
-La chenille est verte et cylindrique ; elle présente le croissant caudal sur la huitième urotergite.
 </t>
         </is>
       </c>
@@ -544,18 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les imagos éclosent des chrysalides formées dans des cocons lâches filés parmi la litière de surface. L'éclosion peut se produire dans les quinze jours.
-Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. 
-Période de vol
-L'espèce est pluriannuelle et les spécimens adultes peuvent être capturés pendant tous les mois de l'année.
-Alimentation
-Les adultes se nourrissent du nectar des fleurs.
-Les chenilles se nourrissent sur Guettarda macrosperma et Chomelia spinosa et d'autres espèces de la famille des Rubiacées.
+          <t>La chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte et cylindrique ; elle présente le croissant caudal sur la huitième urotergite.
 </t>
         </is>
       </c>
@@ -581,10 +596,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos éclosent des chrysalides formées dans des cocons lâches filés parmi la litière de surface. L'éclosion peut se produire dans les quinze jours.
+Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est pluriannuelle et les spécimens adultes peuvent être capturés pendant tous les mois de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent du nectar des fleurs.
+Les chenilles se nourrissent sur Guettarda macrosperma et Chomelia spinosa et d'autres espèces de la famille des Rubiacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Distribution
 Brésil, (localité type) et Venezuela.
@@ -593,35 +719,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eupyrrhoglossum_venustum</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_venustum</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce Eupyrrhoglossum venustum  a été décrite par les entomologistes Lionel Walter Rothschild et Karl Jordan, en 1910[1].
-Taxinomie
-Pas de sous-espèce décrite.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce Eupyrrhoglossum venustum  a été décrite par les entomologistes Lionel Walter Rothschild et Karl Jordan, en 1910.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_venustum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de sous-espèce décrite.
 </t>
         </is>
       </c>
